--- a/Buyer hub/Orders/Automated testcases/Recurring order testcase.xlsx
+++ b/Buyer hub/Orders/Automated testcases/Recurring order testcase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Orders\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003F1775-E5C6-48F8-AE33-B203E28EF5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D51D40D-DC92-43E2-8193-E18DA0744746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,21 +159,12 @@
     <t>it gets displayed details of recurring order</t>
   </si>
   <si>
-    <t>It display Delivery to, Frequency, Edit settings, Description, Quantity, Amt($), Delete Icon, Add from catalogue, Optional-Add special request or delivery/billing instruction, Special request, Use promo code, Save recurring order</t>
-  </si>
-  <si>
-    <t>It displayed the Delivery to, Frequency, Edit settings, Description, Quantity, Amt($), Delete Icon, Add from catalogue, Optional-Add special request or delivery/billing instruction, Special request, Use promo code, Save recurring order</t>
-  </si>
-  <si>
     <t>Once click the Edit settings it shows pop up page</t>
   </si>
   <si>
     <t>It gets displayed</t>
   </si>
   <si>
-    <t>Delivery on, Skip check box, End date, select date, Contact person dropdown, Place order dropdown and Done</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Actions -&gt; </t>
     </r>
@@ -190,9 +181,6 @@
     </r>
   </si>
   <si>
-    <t>It gets displayed Save recurring order or Cancel button</t>
-  </si>
-  <si>
     <t xml:space="preserve">It gets displayed the orders page </t>
   </si>
   <si>
@@ -219,6 +207,249 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Actions -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit-&gt; Cancel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once enter the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Cancel'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,it return back to All orders screen</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Make active and Make in active orders</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actions -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make inactive/active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In some orders we have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save as draft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in below bottom ,if you click the Save as draft </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.If the order is Disabled then click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">               2.If the order is Enabled then click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make inactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">               </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actions -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delete</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed Order deleted successfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oder it will deleted the order</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It display Delivery to, Frequency, Edit settings, Description, Quantity, Amt($), Delete Icon, Edit settings, Add from catalogue, Optional-Add special request or delivery/billing instruction, Special request, Use promo code, Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the Delivery to, Frequency, Edit settings, Description, Quantity, Amt($), Delete Icon, Edit settings, Add from catalogue, Optional-Add special request or delivery/billing instruction, Special request, Use promo code, Save </t>
+  </si>
+  <si>
+    <t>Delivery on, Skip check box, Eve of holidays check box, End date, select date, Contact person dropdown, Place order dropdown and Next Add SKU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the required data and click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save or Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed Save or Cancel button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once enter the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Save '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,Toaster Standing order updated successfully</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Actions -&gt;</t>
     </r>
     <r>
@@ -230,238 +461,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Edit-&gt; Save recurring order</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Actions -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit-&gt; Cancel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once enter the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Cancel'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,it return back to All orders screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once enter the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Save recurring order'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,Toaster order updated successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter the required data and click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save recurring order or Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Make active and Make in active orders</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Actions -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Make inactive/active</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In some orders we have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save as draft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in below bottom ,if you click the Save as draft </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.If the order is Disabled then click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Make active</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">               2.If the order is Enabled then click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Make inactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Actions -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Delete</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed Order deleted successfully</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> oder it will deleted the order</t>
+      <t xml:space="preserve"> Edit-&gt; Save</t>
     </r>
   </si>
 </sst>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -976,13 +976,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -999,13 +999,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1091,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1114,13 +1114,13 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1137,13 +1137,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1160,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
